--- a/data/trans_camb/IP1010-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP1010-Habitat-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 1,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 0,0</t>
+          <t>0,0; 19,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 0,0</t>
+          <t>0,0; 9,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 0,61</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>89,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-3,8%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-0,01</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 1,94</t>
+          <t>-1,39; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 1,59</t>
+          <t>-0,65; 1,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,32; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 0,96</t>
+          <t>-1,27; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 0,61</t>
+          <t>-0,64; 0,61</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>181,09%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>89,09%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>179,92%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>-3,8%</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,54</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,6; -0,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,65; -0,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,98</t>
+          <t>0,0; 1,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,9</t>
+          <t>-1,78; 0,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; 0,1</t>
         </is>
       </c>
     </row>
@@ -1145,12 +1145,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1160,17 +1160,17 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-80,31%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,83%</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>0,03</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,6; -0,42</t>
+          <t>-0,67; 1,94</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,65; -0,43</t>
+          <t>-0,68; 1,59</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 0,05</t>
+          <t>-0,19; 0,96</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 0,1</t>
+          <t>-0,34; 0,61</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>181,09%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>17,98%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-80,31%</t>
+          <t>179,92%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-76,83%</t>
+          <t>17,93%</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1010-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP1010-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,98</t>
+          <t>0,0; 19,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,9</t>
+          <t>0,0; 9,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 1,09</t>
+          <t>-2,37; 1,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 4,91</t>
+          <t>-0,98; 4,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 2,01</t>
+          <t>-1,04; 2,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 0,0</t>
+          <t>-2,8; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 1,27</t>
+          <t>-1,27; 1,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 2,22</t>
+          <t>-0,99; 1,99</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 0,0</t>
+          <t>-1,63; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 1,45</t>
+          <t>-0,65; 1,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 0,0</t>
+          <t>-2,18; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,0</t>
+          <t>-1,64; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 0,0</t>
+          <t>-1,12; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 0,61</t>
+          <t>-0,65; 0,48</t>
         </is>
       </c>
     </row>
@@ -1107,17 +1107,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,6; -0,42</t>
+          <t>-4,07; -0,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,65; -0,43</t>
+          <t>-4,02; -0,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,41</t>
+          <t>0,0; 1,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 0,05</t>
+          <t>-1,88; 0,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 0,1</t>
+          <t>-1,79; 0,07</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 1,94</t>
+          <t>-0,67; 1,91</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 1,59</t>
+          <t>-0,67; 1,25</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1283,12 +1283,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 0,96</t>
+          <t>-0,2; 0,96</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 0,61</t>
+          <t>-0,47; 0,62</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 0,25</t>
+          <t>-0,93; 0,26</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 0,71</t>
+          <t>-0,61; 0,78</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 0,62</t>
+          <t>-0,25; 0,63</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 0,11</t>
+          <t>-0,46; 0,13</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 0,24</t>
+          <t>-0,49; 0,3</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 0,32</t>
+          <t>-0,39; 0,38</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-89,99; 102,59</t>
+          <t>-89,67; 94,33</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-74,72; 261,99</t>
+          <t>-68,89; 278,2</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1515,12 +1515,19 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-78,87; 111,48</t>
+          <t>-76,52; 141,93</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-69,87; 167,94</t>
+          <t>-67,8; 180,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1010-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP1010-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,4</t>
+          <t>0,0; 24,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,49</t>
+          <t>0,0; 10,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 1,17</t>
+          <t>-2,44; 1,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 4,79</t>
+          <t>-0,97; 4,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 2,14</t>
+          <t>-1,05; 2,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 0,0</t>
+          <t>-2,64; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 1,06</t>
+          <t>-1,28; 1,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 1,99</t>
+          <t>-0,74; 2,24</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -896,14 +896,14 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -951,17 +951,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 0,0</t>
+          <t>-1,74; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 1,2</t>
+          <t>-0,65; 1,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 0,0</t>
+          <t>-1,64; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,0</t>
+          <t>-1,02; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 0,48</t>
+          <t>-0,65; 0,61</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,07; -0,43</t>
+          <t>-4,06; -0,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,02; -0,43</t>
+          <t>-3,73; -0,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,6</t>
+          <t>0,0; 1,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,68</t>
+          <t>0,0; 1,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 0,05</t>
+          <t>-1,71; 0,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 0,07</t>
+          <t>-1,71; 0,09</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 1,91</t>
+          <t>-0,37; 2,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 1,25</t>
+          <t>-0,68; 1,21</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1283,12 +1283,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 0,96</t>
+          <t>-0,21; 0,97</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 0,62</t>
+          <t>-0,34; 0,65</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 0,26</t>
+          <t>-0,92; 0,25</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 0,78</t>
+          <t>-0,55; 0,81</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 0,63</t>
+          <t>-0,34; 0,53</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 0,13</t>
+          <t>-0,51; 0,13</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 0,3</t>
+          <t>-0,45; 0,31</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 0,38</t>
+          <t>-0,42; 0,35</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-89,67; 94,33</t>
+          <t>-90,02; 99,04</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-68,89; 278,2</t>
+          <t>-68,62; 241,86</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1515,12 +1515,12 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-76,52; 141,93</t>
+          <t>-77,9; 169,99</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-67,8; 180,63</t>
+          <t>-71,87; 208,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1010-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP1010-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,39</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,75; 3,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,25; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,05</t>
+          <t>-1,84; 0,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,75; 3,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,63</t>
+          <t>-0,94; 1,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 1,8</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>177,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-46,12%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>135,45%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>25,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,96%</t>
         </is>
       </c>
     </row>
@@ -740,14 +740,14 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>-0,01</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 1,14</t>
+          <t>-1,56; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 4,32</t>
+          <t>-1,32; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 2,26</t>
+          <t>-1,39; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 0,0</t>
+          <t>-0,65; 1,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,25</t>
+          <t>-1,27; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 2,24</t>
+          <t>-0,64; 0,61</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-46,12%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>137,3%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>27,09%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>89,09%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-22,63%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>61,04%</t>
+          <t>-3,8%</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,54</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 0,0</t>
+          <t>0,0; 1,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 1,22</t>
+          <t>0,0; 1,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 0,0</t>
+          <t>-3,6; -0,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 0,0</t>
+          <t>-3,65; -0,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 0,0</t>
+          <t>-1,78; 0,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 0,61</t>
+          <t>-1,7; 0,1</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>89,09%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-80,31%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-3,8%</t>
+          <t>-76,83%</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>0,03</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,06; -0,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,73; -0,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,5</t>
+          <t>-0,67; 1,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,55</t>
+          <t>-0,68; 1,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 0,04</t>
+          <t>-0,19; 0,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 0,09</t>
+          <t>-0,34; 0,61</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>181,09%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>17,98%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-80,31%</t>
+          <t>179,92%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-76,83%</t>
+          <t>17,93%</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-0,04</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 2,21</t>
+          <t>-0,26; 0,62</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 1,21</t>
+          <t>-0,46; 0,11</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,93; 0,25</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,64; 0,71</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 0,97</t>
+          <t>-0,52; 0,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 0,65</t>
+          <t>-0,41; 0,32</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>181,09%</t>
+          <t>61,82%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>-59,38%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,06%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>179,92%</t>
+          <t>-22,5%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>-8,45%</t>
         </is>
       </c>
     </row>
@@ -1349,190 +1349,34 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,99; 102,59</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,72; 261,99</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,87; 111,48</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,87; 167,94</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-0,29</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-0,09</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-0,04</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,92; 0,25</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-0,55; 0,81</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-0,34; 0,53</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,51; 0,13</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-0,45; 0,31</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-0,42; 0,35</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-45,06%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>5,35%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>61,82%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-59,38%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-22,5%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-8,45%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-90,02; 99,04</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-68,62; 241,86</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-77,9; 169,99</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-71,87; 208,37</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
